--- a/src/main/resources/templates/T_MANUAL_EST_EC.xlsx
+++ b/src/main/resources/templates/T_MANUAL_EST_EC.xlsx
@@ -24,11 +24,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,17 +391,10 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -411,10 +404,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -429,6 +422,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>